--- a/src/test/resources/TestData/Data.xlsx
+++ b/src/test/resources/TestData/Data.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -440,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,6 +557,29 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
